--- a/ziliao/new讯录.xlsx
+++ b/ziliao/new讯录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="178">
   <si>
     <t>生产保障中心</t>
   </si>
@@ -63,6 +63,9 @@
     <t>赵君科</t>
   </si>
   <si>
+    <t>15092711897</t>
+  </si>
+  <si>
     <t>罗威</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>李德科</t>
   </si>
   <si>
+    <t>孙祖兴</t>
+  </si>
+  <si>
     <t>刘文峰</t>
   </si>
   <si>
@@ -282,24 +288,15 @@
     <t>周志明</t>
   </si>
   <si>
-    <t>检
-修
-四
-班</t>
+    <t>检修四班</t>
   </si>
   <si>
     <t>付腾飞</t>
   </si>
   <si>
-    <t>检修班</t>
-  </si>
-  <si>
     <t>郭胜利</t>
   </si>
   <si>
-    <t>检修四班</t>
-  </si>
-  <si>
     <t>乔琪</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>15253706139</t>
   </si>
   <si>
-    <t>车辆及动力维修班</t>
-  </si>
-  <si>
     <t>王超</t>
   </si>
   <si>
@@ -451,9 +445,6 @@
   </si>
   <si>
     <t>韩宏伟</t>
-  </si>
-  <si>
-    <t>13905378551</t>
   </si>
   <si>
     <t>郭金腾</t>
@@ -566,8 +557,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -609,8 +600,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -624,47 +654,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,6 +671,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -687,7 +693,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,14 +715,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,29 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,19 +760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +802,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,25 +886,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,85 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1030,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1050,26 +1052,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,144 +1070,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1269,8 +1260,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1592,10 +1583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1603,7 +1594,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="8.62962962962963" customWidth="1"/>
-    <col min="4" max="4" width="16.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="16.3777777777778" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.62962962962963" customWidth="1"/>
     <col min="6" max="6" width="6.25185185185185" customWidth="1"/>
     <col min="7" max="7" width="3.62222222222222" customWidth="1"/>
@@ -1625,7 +1616,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="13">
         <v>13563733361</v>
       </c>
       <c r="E1">
@@ -1642,7 +1633,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>15169700609</v>
       </c>
       <c r="E2">
@@ -1659,7 +1650,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>13953775759</v>
       </c>
       <c r="E3">
@@ -1676,7 +1667,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>15898657500</v>
       </c>
       <c r="E4">
@@ -1693,7 +1684,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>13475477051</v>
       </c>
     </row>
@@ -1707,7 +1698,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>15065371386</v>
       </c>
     </row>
@@ -1721,7 +1712,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>15853770025</v>
       </c>
     </row>
@@ -1735,7 +1726,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="13">
         <v>13791795698</v>
       </c>
     </row>
@@ -1749,7 +1740,7 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1763,7 +1754,7 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1777,8 +1768,8 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>15092711897</v>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:4">
@@ -1789,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
         <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:4">
@@ -1803,9 +1794,9 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13">
         <v>13963708571</v>
       </c>
     </row>
@@ -1817,9 +1808,9 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13">
         <v>13562706605</v>
       </c>
     </row>
@@ -1831,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
         <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E15">
         <v>8712</v>
@@ -1848,9 +1839,9 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13">
         <v>13963742365</v>
       </c>
       <c r="E16">
@@ -1865,9 +1856,9 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13">
         <v>15265704776</v>
       </c>
       <c r="E17">
@@ -1882,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
         <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E18">
         <v>8711</v>
@@ -1899,9 +1890,9 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="D19" s="13">
         <v>15650530216</v>
       </c>
     </row>
@@ -1910,12 +1901,12 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13">
         <v>18354744009</v>
       </c>
     </row>
@@ -1924,12 +1915,12 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="D21" s="13">
         <v>13255374318</v>
       </c>
     </row>
@@ -1938,12 +1929,12 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13">
         <v>13583786575</v>
       </c>
     </row>
@@ -1952,12 +1943,12 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="D23" s="13">
         <v>15866055350</v>
       </c>
     </row>
@@ -1966,12 +1957,12 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="D24" s="13">
         <v>15275779008</v>
       </c>
     </row>
@@ -1980,12 +1971,12 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="D25" s="13">
         <v>15963721172</v>
       </c>
     </row>
@@ -1994,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>15163263120</v>
+        <v>34</v>
+      </c>
+      <c r="D26" s="13">
+        <v>15275470070</v>
       </c>
     </row>
     <row r="27" ht="12" customHeight="1" spans="1:4">
@@ -2008,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <v>15163757930</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="13">
+        <v>15163263120</v>
       </c>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:4">
@@ -2022,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="D28" t="s">
-        <v>37</v>
+      <c r="D28" s="13">
+        <v>15163757930</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:4">
@@ -2036,30 +2027,27 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29">
-        <v>15053755837</v>
-      </c>
-    </row>
-    <row r="30" ht="12" customHeight="1" spans="1:5">
+      <c r="D29" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" ht="12" customHeight="1" spans="1:4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30">
-        <v>15854719909</v>
-      </c>
-      <c r="E30">
-        <v>8736</v>
+      <c r="D30" s="13">
+        <v>15053755837</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
@@ -2067,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31">
-        <v>13583709530</v>
+        <v>42</v>
+      </c>
+      <c r="D31" s="13">
+        <v>15854719909</v>
       </c>
       <c r="E31">
         <v>8736</v>
@@ -2084,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32">
-        <v>15154762756</v>
+        <v>43</v>
+      </c>
+      <c r="D32" s="13">
+        <v>13583709530</v>
       </c>
       <c r="E32">
         <v>8736</v>
@@ -2101,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33">
-        <v>15953721365</v>
+        <v>44</v>
+      </c>
+      <c r="D33" s="13">
+        <v>15154762756</v>
       </c>
       <c r="E33">
         <v>8736</v>
@@ -2118,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34">
-        <v>13791787351</v>
+        <v>45</v>
+      </c>
+      <c r="D34" s="13">
+        <v>15953721365</v>
       </c>
       <c r="E34">
         <v>8736</v>
@@ -2135,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>13675378359</v>
+        <v>46</v>
+      </c>
+      <c r="D35" s="13">
+        <v>13791787351</v>
       </c>
       <c r="E35">
         <v>8736</v>
@@ -2152,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>15092641280</v>
+        <v>47</v>
+      </c>
+      <c r="D36" s="13">
+        <v>13675378359</v>
       </c>
       <c r="E36">
         <v>8736</v>
@@ -2169,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
         <v>48</v>
+      </c>
+      <c r="D37" s="13">
+        <v>15092641280</v>
       </c>
       <c r="E37">
         <v>8736</v>
@@ -2186,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="D38">
-        <v>13963719134</v>
+      <c r="D38" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E38">
         <v>8736</v>
@@ -2203,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>15106750390</v>
+        <v>51</v>
+      </c>
+      <c r="D39" s="13">
+        <v>13963719134</v>
       </c>
       <c r="E39">
         <v>8736</v>
@@ -2220,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
         <v>52</v>
+      </c>
+      <c r="D40" s="13">
+        <v>15106750390</v>
       </c>
       <c r="E40">
         <v>8736</v>
@@ -2237,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="D41">
-        <v>15020751901</v>
+      <c r="D41" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E41">
         <v>8736</v>
@@ -2254,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>13792352387</v>
+        <v>55</v>
+      </c>
+      <c r="D42" s="13">
+        <v>15020751901</v>
       </c>
       <c r="E42">
         <v>8736</v>
@@ -2271,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43">
-        <v>13791789855</v>
+        <v>56</v>
+      </c>
+      <c r="D43" s="13">
+        <v>13792352387</v>
       </c>
       <c r="E43">
         <v>8736</v>
@@ -2288,30 +2276,33 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" t="s">
         <v>57</v>
+      </c>
+      <c r="D44" s="13">
+        <v>13791789855</v>
       </c>
       <c r="E44">
         <v>8736</v>
       </c>
     </row>
-    <row r="45" ht="12" customHeight="1" spans="1:4">
+    <row r="45" ht="12" customHeight="1" spans="1:5">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D45">
-        <v>13705375853</v>
+      <c r="E45">
+        <v>8736</v>
       </c>
     </row>
     <row r="46" ht="12" customHeight="1" spans="1:4">
@@ -2319,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46">
-        <v>15205477098</v>
+        <v>61</v>
+      </c>
+      <c r="D46" s="13">
+        <v>13705375853</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:4">
@@ -2333,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47">
-        <v>15153756268</v>
+        <v>62</v>
+      </c>
+      <c r="D47" s="13">
+        <v>15205477098</v>
       </c>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:4">
@@ -2347,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
         <v>63</v>
+      </c>
+      <c r="D48" s="13">
+        <v>15153756268</v>
       </c>
     </row>
     <row r="49" ht="12" customHeight="1" spans="1:4">
@@ -2361,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
-      <c r="D49">
-        <v>13853761085</v>
+      <c r="D49" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" ht="12" customHeight="1" spans="1:4">
@@ -2375,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50">
-        <v>13963719690</v>
+        <v>66</v>
+      </c>
+      <c r="D50" s="13">
+        <v>13853761085</v>
       </c>
     </row>
     <row r="51" ht="12" customHeight="1" spans="1:4">
@@ -2389,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51">
-        <v>15253701188</v>
+        <v>67</v>
+      </c>
+      <c r="D51" s="13">
+        <v>13963719690</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1" spans="1:4">
@@ -2403,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52">
-        <v>13853715210</v>
+        <v>68</v>
+      </c>
+      <c r="D52" s="13">
+        <v>15253701188</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:4">
@@ -2417,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>15063768084</v>
+        <v>69</v>
+      </c>
+      <c r="D53" s="13">
+        <v>13853715210</v>
       </c>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:4">
@@ -2431,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54">
-        <v>13793773973</v>
+        <v>70</v>
+      </c>
+      <c r="D54" s="13">
+        <v>15063768084</v>
       </c>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:4">
@@ -2445,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" t="s">
         <v>71</v>
+      </c>
+      <c r="D55" s="13">
+        <v>13793773973</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:4">
@@ -2459,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D56">
-        <v>13792339130</v>
+      <c r="D56" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
@@ -2473,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57">
-        <v>15163768001</v>
+        <v>74</v>
+      </c>
+      <c r="D57" s="13">
+        <v>13792339130</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
@@ -2487,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" t="s">
         <v>75</v>
+      </c>
+      <c r="D58" s="13">
+        <v>15163768001</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
@@ -2501,12 +2492,12 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2515,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
       </c>
-      <c r="D60">
-        <v>13791786090</v>
+      <c r="D60" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:4">
@@ -2529,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61">
-        <v>15092662973</v>
+        <v>80</v>
+      </c>
+      <c r="D61" s="13">
+        <v>13791786090</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:4">
@@ -2543,30 +2534,27 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62">
-        <v>13963724697</v>
-      </c>
-    </row>
-    <row r="63" ht="12" customHeight="1" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="D62" s="13">
+        <v>15092662973</v>
+      </c>
+    </row>
+    <row r="63" ht="12" customHeight="1" spans="1:4">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
-      <c r="D63">
-        <v>15866050559</v>
-      </c>
-      <c r="E63">
-        <v>6315</v>
+      <c r="D63" s="13">
+        <v>13963724697</v>
       </c>
     </row>
     <row r="64" ht="12" customHeight="1" spans="1:5">
@@ -2574,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64">
-        <v>13863709396</v>
+        <v>84</v>
+      </c>
+      <c r="D64" s="13">
+        <v>15866050559</v>
       </c>
       <c r="E64">
         <v>6315</v>
@@ -2591,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65">
-        <v>13721900500</v>
+        <v>85</v>
+      </c>
+      <c r="D65" s="13">
+        <v>13863709396</v>
       </c>
       <c r="E65">
         <v>6315</v>
@@ -2608,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66">
-        <v>13853709625</v>
+        <v>86</v>
+      </c>
+      <c r="D66" s="13">
+        <v>13721900500</v>
       </c>
       <c r="E66">
         <v>6315</v>
@@ -2625,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67">
-        <v>13793751260</v>
+        <v>87</v>
+      </c>
+      <c r="D67" s="13">
+        <v>13853709625</v>
       </c>
       <c r="E67">
         <v>6315</v>
@@ -2642,44 +2630,47 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68">
-        <v>15963751939</v>
+        <v>88</v>
+      </c>
+      <c r="D68" s="13">
+        <v>13793751260</v>
       </c>
       <c r="E68">
         <v>6315</v>
       </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" spans="1:4">
+    <row r="69" ht="12" customHeight="1" spans="1:5">
       <c r="A69" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>88</v>
+      <c r="B69" t="s">
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>89</v>
       </c>
-      <c r="D69">
-        <v>13863710323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="13">
+        <v>15963751939</v>
+      </c>
+      <c r="E69">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8" customHeight="1" spans="1:4">
       <c r="A70" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" t="s">
         <v>90</v>
       </c>
       <c r="C70" t="s">
         <v>91</v>
       </c>
-      <c r="D70">
-        <v>13053746495</v>
+      <c r="D70" s="13">
+        <v>13863710323</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2687,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
         <v>92</v>
       </c>
-      <c r="C71" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71">
-        <v>13625479321</v>
+      <c r="D71" s="13">
+        <v>13053746495</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2701,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72">
-        <v>13563799037</v>
+        <v>93</v>
+      </c>
+      <c r="D72" s="13">
+        <v>13625479321</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2715,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73">
-        <v>13963781667</v>
+        <v>94</v>
+      </c>
+      <c r="D73" s="13">
+        <v>13563799037</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2729,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74">
-        <v>13666376085</v>
+        <v>95</v>
+      </c>
+      <c r="D74" s="13">
+        <v>13963781667</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2743,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75">
-        <v>13678676686</v>
+        <v>96</v>
+      </c>
+      <c r="D75" s="13">
+        <v>13666376085</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2757,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76">
-        <v>15264710225</v>
+        <v>97</v>
+      </c>
+      <c r="D76" s="13">
+        <v>13678676686</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2771,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77">
-        <v>13863787283</v>
+        <v>98</v>
+      </c>
+      <c r="D77" s="13">
+        <v>15264710225</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2785,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78">
-        <v>15864545596</v>
+        <v>99</v>
+      </c>
+      <c r="D78" s="13">
+        <v>13863787283</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2799,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79">
-        <v>13964927653</v>
+        <v>100</v>
+      </c>
+      <c r="D79" s="13">
+        <v>15864545596</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2813,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80">
-        <v>13964952699</v>
+        <v>101</v>
+      </c>
+      <c r="D80" s="13">
+        <v>13964927653</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2827,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81">
-        <v>13854704770</v>
+        <v>102</v>
+      </c>
+      <c r="D81" s="13">
+        <v>13964952699</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2841,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82">
-        <v>13406291301</v>
+        <v>103</v>
+      </c>
+      <c r="D82" s="13">
+        <v>13854704770</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2855,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83">
-        <v>15054851373</v>
+        <v>104</v>
+      </c>
+      <c r="D83" s="13">
+        <v>13406291301</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2869,30 +2860,30 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="13">
+        <v>15054851373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
         <v>106</v>
       </c>
-      <c r="D84">
+      <c r="D85" s="13">
         <v>18264788859</v>
       </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" spans="1:4">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85">
-        <v>15020786026</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+    <row r="86" ht="13.8" customHeight="1" spans="1:4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2900,10 +2891,10 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86">
-        <v>15275767975</v>
+        <v>108</v>
+      </c>
+      <c r="D86" s="13">
+        <v>15020786026</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2911,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87">
-        <v>15153706856</v>
+        <v>109</v>
+      </c>
+      <c r="D87" s="13">
+        <v>15275767975</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2925,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88">
-        <v>13615371578</v>
+        <v>110</v>
+      </c>
+      <c r="D88" s="13">
+        <v>15153706856</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2939,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89">
-        <v>15965719870</v>
+        <v>112</v>
+      </c>
+      <c r="D89" s="13">
+        <v>13615371578</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2956,10 +2947,10 @@
         <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
-      </c>
-      <c r="D90">
-        <v>15253783651</v>
+        <v>113</v>
+      </c>
+      <c r="D90" s="13">
+        <v>15965719870</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2970,10 +2961,10 @@
         <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91">
-        <v>15265764009</v>
+        <v>114</v>
+      </c>
+      <c r="D91" s="13">
+        <v>15253783651</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2984,10 +2975,10 @@
         <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92">
-        <v>15106721375</v>
+        <v>115</v>
+      </c>
+      <c r="D92" s="13">
+        <v>15265764009</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2998,10 +2989,10 @@
         <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93">
-        <v>13605376684</v>
+        <v>116</v>
+      </c>
+      <c r="D93" s="13">
+        <v>15106721375</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3012,10 +3003,10 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94">
-        <v>13863784515</v>
+        <v>117</v>
+      </c>
+      <c r="D94" s="13">
+        <v>13605376684</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3023,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95">
-        <v>15963720589</v>
+        <v>118</v>
+      </c>
+      <c r="D95" s="13">
+        <v>13863784515</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3040,10 +3031,10 @@
         <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96">
-        <v>13963771600</v>
+        <v>119</v>
+      </c>
+      <c r="D96" s="13">
+        <v>15963720589</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3051,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D97">
-        <v>13793774509</v>
+        <v>120</v>
+      </c>
+      <c r="D97" s="13">
+        <v>13963771600</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3065,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98">
-        <v>13668675231</v>
+        <v>121</v>
+      </c>
+      <c r="D98" s="13">
+        <v>13793774509</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3079,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99">
-        <v>15853757087</v>
+        <v>122</v>
+      </c>
+      <c r="D99" s="13">
+        <v>13668675231</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3096,41 +3087,38 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="13">
+        <v>15853757087</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
         <v>124</v>
       </c>
-      <c r="D100">
+      <c r="D101" s="13">
         <v>15069718875</v>
       </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" spans="1:5">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="102" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
         <v>125</v>
       </c>
-      <c r="D101">
+      <c r="D102" s="13">
         <v>15153795578</v>
-      </c>
-      <c r="E101">
-        <v>8710</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102">
-        <v>15106764161</v>
       </c>
       <c r="E102">
         <v>8710</v>
@@ -3141,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103">
-        <v>18863730226</v>
+        <v>126</v>
+      </c>
+      <c r="D103" s="13">
+        <v>15106764161</v>
       </c>
       <c r="E103">
         <v>8710</v>
@@ -3158,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="D104" s="13">
+        <v>18863730226</v>
       </c>
       <c r="E104">
         <v>8710</v>
@@ -3175,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
-      </c>
-      <c r="D105">
-        <v>13562415186</v>
+        <v>128</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E105">
         <v>8710</v>
@@ -3192,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106">
-        <v>15106790683</v>
+        <v>130</v>
+      </c>
+      <c r="D106" s="13">
+        <v>13562415186</v>
       </c>
       <c r="E106">
         <v>8710</v>
@@ -3209,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="D107" s="13">
+        <v>15106790683</v>
       </c>
       <c r="E107">
         <v>8710</v>
@@ -3226,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
-      </c>
-      <c r="D108" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="E108">
         <v>8710</v>
@@ -3243,36 +3231,36 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="E109">
         <v>8710</v>
       </c>
     </row>
-    <row r="110" ht="13.8" customHeight="1" spans="1:5">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E110">
-        <v>8709</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="111" ht="13.8" customHeight="1" spans="1:5">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3280,10 +3268,10 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
-      </c>
-      <c r="D111" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="E111">
         <v>8709</v>
@@ -3297,10 +3285,10 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>143</v>
-      </c>
-      <c r="D112" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="E112">
         <v>8709</v>
@@ -3314,44 +3302,44 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113">
-        <v>15054855615</v>
+        <v>142</v>
+      </c>
+      <c r="D113" s="13">
+        <v>13905378551</v>
       </c>
       <c r="E113">
         <v>8709</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
-      </c>
-      <c r="D114">
+        <v>143</v>
+      </c>
+      <c r="D114" s="13">
+        <v>15054855615</v>
+      </c>
+      <c r="E114">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" s="13">
         <v>13563735323</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" t="s">
-        <v>147</v>
-      </c>
-      <c r="D115">
-        <v>13853783557</v>
-      </c>
-      <c r="E115">
-        <v>8709</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3362,44 +3350,44 @@
         <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
-      </c>
-      <c r="D116">
-        <v>15963036974</v>
+        <v>145</v>
+      </c>
+      <c r="D116" s="13">
+        <v>13853783557</v>
       </c>
       <c r="E116">
         <v>8709</v>
       </c>
     </row>
-    <row r="117" ht="13.8" customHeight="1" spans="1:5">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117">
+        <v>146</v>
+      </c>
+      <c r="D117" s="13">
+        <v>15963036974</v>
+      </c>
+      <c r="E117">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="118" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" s="13">
         <v>13793760550</v>
-      </c>
-      <c r="E117">
-        <v>8713</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>149</v>
-      </c>
-      <c r="C118" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118">
-        <v>15275769537</v>
       </c>
       <c r="E118">
         <v>8713</v>
@@ -3410,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" t="s">
         <v>149</v>
       </c>
-      <c r="C119" t="s">
-        <v>152</v>
-      </c>
-      <c r="D119">
-        <v>13954763546</v>
+      <c r="D119" s="13">
+        <v>15275769537</v>
       </c>
       <c r="E119">
         <v>8713</v>
@@ -3427,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120">
-        <v>15054755978</v>
+        <v>150</v>
+      </c>
+      <c r="D120" s="13">
+        <v>13954763546</v>
       </c>
       <c r="E120">
         <v>8713</v>
@@ -3444,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121">
-        <v>13863784428</v>
+        <v>151</v>
+      </c>
+      <c r="D121" s="13">
+        <v>15054755978</v>
       </c>
       <c r="E121">
         <v>8713</v>
@@ -3461,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
-      </c>
-      <c r="D122">
-        <v>13791719102</v>
+        <v>152</v>
+      </c>
+      <c r="D122" s="13">
+        <v>13863784428</v>
       </c>
       <c r="E122">
         <v>8713</v>
@@ -3478,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123">
-        <v>15863731215</v>
+        <v>153</v>
+      </c>
+      <c r="D123" s="13">
+        <v>13791719102</v>
       </c>
       <c r="E123">
         <v>8713</v>
@@ -3495,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
-      </c>
-      <c r="D124">
-        <v>13792386253</v>
+        <v>154</v>
+      </c>
+      <c r="D124" s="13">
+        <v>15863731215</v>
       </c>
       <c r="E124">
         <v>8713</v>
@@ -3512,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
-      </c>
-      <c r="D125">
-        <v>15269766850</v>
+        <v>155</v>
+      </c>
+      <c r="D125" s="13">
+        <v>13792386253</v>
       </c>
       <c r="E125">
         <v>8713</v>
@@ -3529,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
-      </c>
-      <c r="D126">
-        <v>18266811617</v>
+        <v>156</v>
+      </c>
+      <c r="D126" s="13">
+        <v>15269766850</v>
       </c>
       <c r="E126">
         <v>8713</v>
@@ -3546,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
-      </c>
-      <c r="D127">
-        <v>15153793353</v>
+        <v>157</v>
+      </c>
+      <c r="D127" s="13">
+        <v>18266811617</v>
       </c>
       <c r="E127">
         <v>8713</v>
@@ -3563,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128">
-        <v>18753722027</v>
+        <v>158</v>
+      </c>
+      <c r="D128" s="13">
+        <v>15153793353</v>
       </c>
       <c r="E128">
         <v>8713</v>
@@ -3580,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
-      </c>
-      <c r="D129">
-        <v>15163700207</v>
+        <v>159</v>
+      </c>
+      <c r="D129" s="13">
+        <v>18753722027</v>
       </c>
       <c r="E129">
         <v>8713</v>
@@ -3597,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
-      </c>
-      <c r="D130">
-        <v>13964925033</v>
+        <v>160</v>
+      </c>
+      <c r="D130" s="13">
+        <v>15163700207</v>
       </c>
       <c r="E130">
         <v>8713</v>
@@ -3614,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
-      </c>
-      <c r="D131">
-        <v>15053783400</v>
+        <v>161</v>
+      </c>
+      <c r="D131" s="13">
+        <v>13964925033</v>
       </c>
       <c r="E131">
         <v>8713</v>
@@ -3631,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
-      </c>
-      <c r="D132">
-        <v>18754782027</v>
+        <v>162</v>
+      </c>
+      <c r="D132" s="13">
+        <v>15053783400</v>
       </c>
       <c r="E132">
         <v>8713</v>
@@ -3648,30 +3636,33 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
-      </c>
-      <c r="D133">
-        <v>13515477727</v>
+        <v>163</v>
+      </c>
+      <c r="D133" s="13">
+        <v>18754782027</v>
       </c>
       <c r="E133">
         <v>8713</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
-      </c>
-      <c r="D134">
-        <v>15865707103</v>
+        <v>164</v>
+      </c>
+      <c r="D134" s="13">
+        <v>13515477727</v>
+      </c>
+      <c r="E134">
+        <v>8713</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3679,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
-      </c>
-      <c r="D135">
-        <v>18678703945</v>
+        <v>165</v>
+      </c>
+      <c r="D135" s="13">
+        <v>15865707103</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3693,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
-      </c>
-      <c r="D136">
-        <v>18643449455</v>
+        <v>166</v>
+      </c>
+      <c r="D136" s="13">
+        <v>18678703945</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3707,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>171</v>
-      </c>
-      <c r="D137">
-        <v>18369770932</v>
+        <v>167</v>
+      </c>
+      <c r="D137" s="13">
+        <v>18643449455</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3721,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
-      </c>
-      <c r="D138">
-        <v>15863732288</v>
+        <v>169</v>
+      </c>
+      <c r="D138" s="13">
+        <v>18369770932</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3735,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" t="s">
         <v>170</v>
       </c>
-      <c r="C139" t="s">
-        <v>173</v>
-      </c>
-      <c r="D139">
-        <v>13290304979</v>
+      <c r="D139" s="13">
+        <v>15863732288</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3749,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>174</v>
-      </c>
-      <c r="D140">
-        <v>15206741978</v>
+        <v>171</v>
+      </c>
+      <c r="D140" s="13">
+        <v>13290304979</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3763,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
-      </c>
-      <c r="D141">
-        <v>13563768590</v>
+        <v>172</v>
+      </c>
+      <c r="D141" s="13">
+        <v>15206741978</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3777,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C142" t="s">
-        <v>176</v>
-      </c>
-      <c r="D142">
-        <v>13563753076</v>
+        <v>173</v>
+      </c>
+      <c r="D142" s="13">
+        <v>13563768590</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3791,12 +3782,26 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C143" t="s">
-        <v>177</v>
-      </c>
-      <c r="D143">
+        <v>174</v>
+      </c>
+      <c r="D143" s="13">
+        <v>13563753076</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" t="s">
+        <v>175</v>
+      </c>
+      <c r="D144" s="13">
         <v>13695471285</v>
       </c>
     </row>
@@ -3831,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="3">
@@ -3847,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3">
@@ -3863,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10">
@@ -3877,7 +3882,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="3">
@@ -3889,10 +3894,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
@@ -3905,7 +3910,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3">
@@ -3918,7 +3923,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -3931,7 +3936,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>

--- a/ziliao/new讯录.xlsx
+++ b/ziliao/new讯录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="180">
   <si>
     <t>生产保障中心</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>高波</t>
+  </si>
+  <si>
+    <t>张帅</t>
+  </si>
+  <si>
+    <t>13515015012</t>
   </si>
   <si>
     <t>孙希杭</t>
@@ -557,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -595,21 +601,133 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,14 +742,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -639,113 +749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,25 +766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,19 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +850,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,85 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,20 +988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,6 +1018,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1026,17 +1038,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,17 +1057,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,144 +1076,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,10 +1589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1920,8 +1926,8 @@
       <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="13">
-        <v>13255374318</v>
+      <c r="D21" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="12" customHeight="1" spans="1:4">
@@ -1932,10 +1938,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="13">
-        <v>13583786575</v>
+        <v>13255374318</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:4">
@@ -1946,10 +1952,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="13">
-        <v>15866055350</v>
+        <v>13583786575</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:4">
@@ -1960,10 +1966,10 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="13">
-        <v>15275779008</v>
+        <v>15866055350</v>
       </c>
     </row>
     <row r="25" ht="12" customHeight="1" spans="1:4">
@@ -1974,10 +1980,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="13">
-        <v>15963721172</v>
+        <v>15275779008</v>
       </c>
     </row>
     <row r="26" ht="12" customHeight="1" spans="1:4">
@@ -1988,10 +1994,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="13">
-        <v>15275470070</v>
+        <v>15963721172</v>
       </c>
     </row>
     <row r="27" ht="12" customHeight="1" spans="1:4">
@@ -2002,10 +2008,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="13">
-        <v>15163263120</v>
+        <v>15275470070</v>
       </c>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:4">
@@ -2016,10 +2022,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="13">
-        <v>15163757930</v>
+        <v>15163263120</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:4">
@@ -2027,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>39</v>
+      <c r="D29" s="13">
+        <v>15163757930</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:4">
@@ -2041,30 +2047,27 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="13">
-        <v>15053755837</v>
-      </c>
-    </row>
-    <row r="31" ht="12" customHeight="1" spans="1:5">
+      <c r="D30" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" ht="12" customHeight="1" spans="1:4">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="13">
-        <v>15854719909</v>
-      </c>
-      <c r="E31">
-        <v>8736</v>
+        <v>15053755837</v>
       </c>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:5">
@@ -2072,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="13">
-        <v>13583709530</v>
+        <v>15854719909</v>
       </c>
       <c r="E32">
         <v>8736</v>
@@ -2089,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="13">
-        <v>15154762756</v>
+        <v>13583709530</v>
       </c>
       <c r="E33">
         <v>8736</v>
@@ -2106,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="13">
-        <v>15953721365</v>
+        <v>15154762756</v>
       </c>
       <c r="E34">
         <v>8736</v>
@@ -2123,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="13">
-        <v>13791787351</v>
+        <v>15953721365</v>
       </c>
       <c r="E35">
         <v>8736</v>
@@ -2140,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="13">
-        <v>13675378359</v>
+        <v>13791787351</v>
       </c>
       <c r="E36">
         <v>8736</v>
@@ -2157,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="13">
-        <v>15092641280</v>
+        <v>13675378359</v>
       </c>
       <c r="E37">
         <v>8736</v>
@@ -2174,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="13" t="s">
         <v>50</v>
+      </c>
+      <c r="D38" s="13">
+        <v>15092641280</v>
       </c>
       <c r="E38">
         <v>8736</v>
@@ -2191,13 +2194,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="13">
-        <v>13963719134</v>
+      <c r="D39" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="E39">
         <v>8736</v>
@@ -2208,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" s="13">
-        <v>15106750390</v>
+        <v>13963719134</v>
       </c>
       <c r="E40">
         <v>8736</v>
@@ -2225,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="13" t="s">
         <v>54</v>
+      </c>
+      <c r="D41" s="13">
+        <v>15106750390</v>
       </c>
       <c r="E41">
         <v>8736</v>
@@ -2242,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="13">
-        <v>15020751901</v>
+      <c r="D42" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E42">
         <v>8736</v>
@@ -2259,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="13">
-        <v>13792352387</v>
+        <v>15020751901</v>
       </c>
       <c r="E43">
         <v>8736</v>
@@ -2276,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="13">
-        <v>13791789855</v>
+        <v>13792352387</v>
       </c>
       <c r="E44">
         <v>8736</v>
@@ -2293,30 +2296,33 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="13" t="s">
         <v>59</v>
+      </c>
+      <c r="D45" s="13">
+        <v>13791789855</v>
       </c>
       <c r="E45">
         <v>8736</v>
       </c>
     </row>
-    <row r="46" ht="12" customHeight="1" spans="1:4">
+    <row r="46" ht="12" customHeight="1" spans="1:5">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="13">
-        <v>13705375853</v>
+      <c r="E46">
+        <v>8736</v>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" spans="1:4">
@@ -2324,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="13">
-        <v>15205477098</v>
+        <v>13705375853</v>
       </c>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:4">
@@ -2338,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="13">
-        <v>15153756268</v>
+        <v>15205477098</v>
       </c>
     </row>
     <row r="49" ht="12" customHeight="1" spans="1:4">
@@ -2352,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="13" t="s">
         <v>65</v>
+      </c>
+      <c r="D49" s="13">
+        <v>15153756268</v>
       </c>
     </row>
     <row r="50" ht="12" customHeight="1" spans="1:4">
@@ -2366,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="13">
-        <v>13853761085</v>
+      <c r="D50" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" ht="12" customHeight="1" spans="1:4">
@@ -2380,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D51" s="13">
-        <v>13963719690</v>
+        <v>13853761085</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1" spans="1:4">
@@ -2394,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D52" s="13">
-        <v>15253701188</v>
+        <v>13963719690</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:4">
@@ -2408,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D53" s="13">
-        <v>13853715210</v>
+        <v>15253701188</v>
       </c>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:4">
@@ -2422,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D54" s="13">
-        <v>15063768084</v>
+        <v>13853715210</v>
       </c>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:4">
@@ -2436,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="13">
-        <v>13793773973</v>
+        <v>15063768084</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:4">
@@ -2450,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="13" t="s">
         <v>73</v>
+      </c>
+      <c r="D56" s="13">
+        <v>13793773973</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
@@ -2464,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="13">
-        <v>13792339130</v>
+      <c r="D57" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
@@ -2478,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" s="13">
-        <v>15163768001</v>
+        <v>13792339130</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
@@ -2492,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="13" t="s">
         <v>77</v>
+      </c>
+      <c r="D59" s="13">
+        <v>15163768001</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
@@ -2506,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -2520,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="13">
-        <v>13791786090</v>
+      <c r="D61" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:4">
@@ -2534,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D62" s="13">
-        <v>15092662973</v>
+        <v>13791786090</v>
       </c>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:4">
@@ -2548,30 +2554,27 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" s="13">
-        <v>13963724697</v>
-      </c>
-    </row>
-    <row r="64" ht="12" customHeight="1" spans="1:5">
+        <v>15092662973</v>
+      </c>
+    </row>
+    <row r="64" ht="12" customHeight="1" spans="1:4">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="13">
-        <v>15866050559</v>
-      </c>
-      <c r="E64">
-        <v>6315</v>
+        <v>13963724697</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1" spans="1:5">
@@ -2579,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65" s="13">
-        <v>13863709396</v>
+        <v>15866050559</v>
       </c>
       <c r="E65">
         <v>6315</v>
@@ -2596,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D66" s="13">
-        <v>13721900500</v>
+        <v>13863709396</v>
       </c>
       <c r="E66">
         <v>6315</v>
@@ -2613,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67" s="13">
-        <v>13853709625</v>
+        <v>13721900500</v>
       </c>
       <c r="E67">
         <v>6315</v>
@@ -2630,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D68" s="13">
-        <v>13793751260</v>
+        <v>13853709625</v>
       </c>
       <c r="E68">
         <v>6315</v>
@@ -2647,44 +2650,47 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D69" s="13">
-        <v>15963751939</v>
+        <v>13793751260</v>
       </c>
       <c r="E69">
         <v>6315</v>
       </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" spans="1:4">
+    <row r="70" ht="12" customHeight="1" spans="1:5">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>91</v>
       </c>
       <c r="D70" s="13">
+        <v>15963751939</v>
+      </c>
+      <c r="E70">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="71" ht="13.8" customHeight="1" spans="1:4">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="13">
         <v>13863710323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="13">
-        <v>13053746495</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2692,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D72" s="13">
-        <v>13625479321</v>
+        <v>13053746495</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2706,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73" s="13">
-        <v>13563799037</v>
+        <v>13625479321</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2720,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D74" s="13">
-        <v>13963781667</v>
+        <v>13563799037</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2734,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" s="13">
-        <v>13666376085</v>
+        <v>13963781667</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2748,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D76" s="13">
-        <v>13678676686</v>
+        <v>13666376085</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2762,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D77" s="13">
-        <v>15264710225</v>
+        <v>13678676686</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2776,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D78" s="13">
-        <v>13863787283</v>
+        <v>15264710225</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2790,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D79" s="13">
-        <v>15864545596</v>
+        <v>13863787283</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2804,13 +2810,13 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D80" s="13">
-        <v>13964927653</v>
+        <v>15864545596</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2818,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D81" s="13">
-        <v>13964952699</v>
+        <v>13964927653</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2832,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D82" s="13">
-        <v>13854704770</v>
+        <v>13964952699</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2846,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D83" s="13">
-        <v>13406291301</v>
+        <v>13854704770</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2860,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D84" s="13">
-        <v>15054851373</v>
+        <v>13406291301</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2874,41 +2880,41 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D85" s="13">
-        <v>18264788859</v>
-      </c>
-    </row>
-    <row r="86" ht="13.8" customHeight="1" spans="1:4">
+        <v>15054851373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
         <v>108</v>
       </c>
       <c r="D86" s="13">
+        <v>18264788859</v>
+      </c>
+    </row>
+    <row r="87" ht="13.8" customHeight="1" spans="1:4">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D87" s="13">
         <v>15020786026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" s="13">
-        <v>15275767975</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2916,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D88" s="13">
-        <v>15153706856</v>
+        <v>15275767975</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2930,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="13">
-        <v>13615371578</v>
+        <v>15153706856</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2944,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D90" s="13">
-        <v>15965719870</v>
+        <v>13615371578</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2958,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D91" s="13">
-        <v>15253783651</v>
+        <v>15965719870</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2972,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92" s="13">
-        <v>15265764009</v>
+        <v>15253783651</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2986,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D93" s="13">
-        <v>15106721375</v>
+        <v>15265764009</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3000,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D94" s="13">
-        <v>13605376684</v>
+        <v>15106721375</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3014,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D95" s="13">
-        <v>13863784515</v>
+        <v>13605376684</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3028,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D96" s="13">
-        <v>15963720589</v>
+        <v>13863784515</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3042,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D97" s="13">
-        <v>13963771600</v>
+        <v>15963720589</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3056,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D98" s="13">
-        <v>13793774509</v>
+        <v>13963771600</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3070,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D99" s="13">
-        <v>13668675231</v>
+        <v>13793774509</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3084,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D100" s="13">
-        <v>15853757087</v>
+        <v>13668675231</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3098,44 +3104,41 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D101" s="13">
+        <v>15853757087</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="13">
         <v>15069718875</v>
       </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" spans="1:5">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" s="13">
+    <row r="103" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="13">
         <v>15153795578</v>
-      </c>
-      <c r="E102">
-        <v>8710</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D103" s="13">
-        <v>15106764161</v>
       </c>
       <c r="E103">
         <v>8710</v>
@@ -3146,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D104" s="13">
-        <v>18863730226</v>
+        <v>15106764161</v>
       </c>
       <c r="E104">
         <v>8710</v>
@@ -3163,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="13" t="s">
         <v>129</v>
+      </c>
+      <c r="D105" s="13">
+        <v>18863730226</v>
       </c>
       <c r="E105">
         <v>8710</v>
@@ -3180,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
         <v>130</v>
       </c>
-      <c r="D106" s="13">
-        <v>13562415186</v>
+      <c r="D106" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="E106">
         <v>8710</v>
@@ -3197,13 +3200,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D107" s="13">
-        <v>15106790683</v>
+        <v>13562415186</v>
       </c>
       <c r="E107">
         <v>8710</v>
@@ -3214,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" s="13" t="s">
         <v>133</v>
+      </c>
+      <c r="D108" s="13">
+        <v>15106790683</v>
       </c>
       <c r="E108">
         <v>8710</v>
@@ -3231,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>134</v>
@@ -3248,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>136</v>
@@ -3260,12 +3263,12 @@
         <v>8710</v>
       </c>
     </row>
-    <row r="111" ht="13.8" customHeight="1" spans="1:5">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>138</v>
@@ -3274,15 +3277,15 @@
         <v>139</v>
       </c>
       <c r="E111">
-        <v>8709</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="112" ht="13.8" customHeight="1" spans="1:5">
       <c r="A112" t="s">
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
         <v>140</v>
@@ -3299,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>142</v>
       </c>
-      <c r="D113" s="13">
-        <v>13905378551</v>
+      <c r="D113" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="E113">
         <v>8709</v>
@@ -3316,47 +3319,47 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D114" s="13">
-        <v>15054855615</v>
+        <v>13905378551</v>
       </c>
       <c r="E114">
         <v>8709</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D115" s="13">
+        <v>15054855615</v>
+      </c>
+      <c r="E115">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="13">
         <v>13563735323</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
-        <v>111</v>
-      </c>
-      <c r="C116" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="13">
-        <v>13853783557</v>
-      </c>
-      <c r="E116">
-        <v>8709</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3364,47 +3367,47 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D117" s="13">
-        <v>15963036974</v>
+        <v>13853783557</v>
       </c>
       <c r="E117">
         <v>8709</v>
       </c>
     </row>
-    <row r="118" ht="13.8" customHeight="1" spans="1:5">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>148</v>
       </c>
       <c r="D118" s="13">
+        <v>15963036974</v>
+      </c>
+      <c r="E118">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="119" ht="13.8" customHeight="1" spans="1:5">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="13">
         <v>13793760550</v>
-      </c>
-      <c r="E118">
-        <v>8713</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>147</v>
-      </c>
-      <c r="C119" t="s">
-        <v>149</v>
-      </c>
-      <c r="D119" s="13">
-        <v>15275769537</v>
       </c>
       <c r="E119">
         <v>8713</v>
@@ -3415,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D120" s="13">
-        <v>13954763546</v>
+        <v>15275769537</v>
       </c>
       <c r="E120">
         <v>8713</v>
@@ -3432,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D121" s="13">
-        <v>15054755978</v>
+        <v>13954763546</v>
       </c>
       <c r="E121">
         <v>8713</v>
@@ -3449,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="13">
-        <v>13863784428</v>
+        <v>15054755978</v>
       </c>
       <c r="E122">
         <v>8713</v>
@@ -3466,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D123" s="13">
-        <v>13791719102</v>
+        <v>13863784428</v>
       </c>
       <c r="E123">
         <v>8713</v>
@@ -3483,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D124" s="13">
-        <v>15863731215</v>
+        <v>13791719102</v>
       </c>
       <c r="E124">
         <v>8713</v>
@@ -3500,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D125" s="13">
-        <v>13792386253</v>
+        <v>15863731215</v>
       </c>
       <c r="E125">
         <v>8713</v>
@@ -3517,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D126" s="13">
-        <v>15269766850</v>
+        <v>13792386253</v>
       </c>
       <c r="E126">
         <v>8713</v>
@@ -3534,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D127" s="13">
-        <v>18266811617</v>
+        <v>15269766850</v>
       </c>
       <c r="E127">
         <v>8713</v>
@@ -3551,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D128" s="13">
-        <v>15153793353</v>
+        <v>18266811617</v>
       </c>
       <c r="E128">
         <v>8713</v>
@@ -3568,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D129" s="13">
-        <v>18753722027</v>
+        <v>15153793353</v>
       </c>
       <c r="E129">
         <v>8713</v>
@@ -3585,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D130" s="13">
-        <v>15163700207</v>
+        <v>18753722027</v>
       </c>
       <c r="E130">
         <v>8713</v>
@@ -3602,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D131" s="13">
-        <v>13964925033</v>
+        <v>15163700207</v>
       </c>
       <c r="E131">
         <v>8713</v>
@@ -3619,13 +3622,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D132" s="13">
-        <v>15053783400</v>
+        <v>13964925033</v>
       </c>
       <c r="E132">
         <v>8713</v>
@@ -3636,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D133" s="13">
-        <v>18754782027</v>
+        <v>15053783400</v>
       </c>
       <c r="E133">
         <v>8713</v>
@@ -3653,30 +3656,33 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D134" s="13">
-        <v>13515477727</v>
+        <v>18754782027</v>
       </c>
       <c r="E134">
         <v>8713</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D135" s="13">
-        <v>15865707103</v>
+        <v>13515477727</v>
+      </c>
+      <c r="E135">
+        <v>8713</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3684,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D136" s="13">
-        <v>18678703945</v>
+        <v>15865707103</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3698,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D137" s="13">
-        <v>18643449455</v>
+        <v>18678703945</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3712,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="C138" t="s">
         <v>169</v>
       </c>
       <c r="D138" s="13">
-        <v>18369770932</v>
+        <v>18643449455</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3726,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D139" s="13">
-        <v>15863732288</v>
+        <v>18369770932</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3740,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D140" s="13">
-        <v>13290304979</v>
+        <v>15863732288</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3754,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D141" s="13">
-        <v>15206741978</v>
+        <v>13290304979</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3768,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D142" s="13">
-        <v>13563768590</v>
+        <v>15206741978</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3782,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D143" s="13">
-        <v>13563753076</v>
+        <v>13563768590</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3796,12 +3802,26 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D144" s="13">
+        <v>13563753076</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="13">
         <v>13695471285</v>
       </c>
     </row>
@@ -3836,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="3">
@@ -3852,7 +3872,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3">
@@ -3868,7 +3888,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10">
@@ -3882,7 +3902,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="3">
@@ -3894,10 +3914,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
@@ -3910,7 +3930,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3">
@@ -3923,7 +3943,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -3936,7 +3956,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
